--- a/华泰大赛——参赛私募基金数据填报模板(字段类型) (2).xlsx
+++ b/华泰大赛——参赛私募基金数据填报模板(字段类型) (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12075" windowHeight="7260" activeTab="1"/>
+    <workbookView windowWidth="18000" windowHeight="4665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="产品披露授权函" sheetId="1" r:id="rId1"/>
@@ -1041,8 +1041,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1275,9 +1275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,8 +1289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,6 +1340,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1352,25 +1364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,13 +1388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,13 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,7 +1448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,13 +1466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,13 +1490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,13 +1508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,142 +1676,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2654,12 +2654,12 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
@@ -2932,11 +2932,11 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3608,12 +3608,12 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
